--- a/biology/Botanique/Trimeniaceae/Trimeniaceae.xlsx
+++ b/biology/Botanique/Trimeniaceae/Trimeniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Triméniacées (Trimeniaceae) regroupe des plantes angiospermes de divergence ancienne.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Trimenia lui-même portant le nom du botaniste anglais Henry Trimen (1843-1896), qui travaillait au British Museum à l'époque où le genre a été décrit pour la première fois, ami du botaniste allemand Berthold Carl Seemann (1825-1871)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Trimenia lui-même portant le nom du botaniste anglais Henry Trimen (1843-1896), qui travaillait au British Museum à l'époque où le genre a été décrit pour la première fois, ami du botaniste allemand Berthold Carl Seemann (1825-1871).
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres ou des arbustes parfois grimpants, producteurs d'huiles essentielles, des régions subtropicales à tropicales. On les rencontre en Malaisie, en Australie et dans les îles du Pacifique.
-La classification phylogénétique situe cette  famille parmi les familles de divergence ancienne. En classification phylogénétique APG II (2003)[2] et classification phylogénétique APG III (2009)[3] la famille est incluse dans l'ordre des Austrobaileyales.
+La classification phylogénétique situe cette  famille parmi les familles de divergence ancienne. En classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009) la famille est incluse dans l'ordre des Austrobaileyales.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (16 mai 2010)[4] et NCBI  (28 mars 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (16 mai 2010) et NCBI  (28 mars 2010) :
 genre Trimenia Seem.
-Selon DELTA Angio           (28 mars 2010)[6] :
+Selon DELTA Angio           (28 mars 2010) :
 genre Piptocalyx
 genre Trimenia</t>
         </is>
@@ -608,14 +626,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (1 novembre 2020)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (1 novembre 2020) :
 genre Trimenia
 Trimenia moorei
 Trimenia neocaledonica
 Trimenia sp. CCWD-2000
-Selon Catalogue of Life                                   (1 novembre 2020)[8] :
+Selon Catalogue of Life                                   (1 novembre 2020) :
 genre Trimenia
 Trimenia bougainvilleensis
 Trimenia macrura
